--- a/CalculateClientSecurityHash/Data/Config.xlsx
+++ b/CalculateClientSecurityHash/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dariu\OneDrive\Dokumenty\UiPath\CalculateClientSecurityHash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2CA6C8-0B21-4B92-89A0-EDFF4DFD3172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74ACACE4-8FF4-4894-B6BC-168BA593E3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,9 +151,6 @@
     <t>ACME_Credential</t>
   </si>
   <si>
-    <t>ACME_Credentials</t>
-  </si>
-  <si>
     <t>ACME_URL</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>https://codebeautify.org/sha1-hash-generator</t>
+  </si>
+  <si>
+    <t>ACME_CredentialsD</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -610,7 +610,7 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>40</v>
@@ -622,16 +622,16 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
